--- a/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9648912049017953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.72515057936895</v>
+        <v>-2.725150579368951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02496274175215395</v>
@@ -649,7 +649,7 @@
         <v>0.2632644439043838</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3168181478557275</v>
+        <v>-0.3168181478557276</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.42672614902791</v>
+        <v>-2.558271637730801</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.529334801415968</v>
+        <v>-2.810360956764662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.000842924918588</v>
+        <v>-1.943403938230056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.736996057678292</v>
+        <v>-6.110804925731172</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5816874798364029</v>
+        <v>-0.6155541160426806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4204283130757768</v>
+        <v>-0.4402371412388159</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4719444876938572</v>
+        <v>-0.4242066361802841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5534002919605046</v>
+        <v>-0.5632106441743189</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.019075918668185</v>
+        <v>2.937148697760046</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.847508438801198</v>
+        <v>4.721818446720348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.258047496271298</v>
+        <v>4.124771627215478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1698927932599101</v>
+        <v>0.06452232887452224</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.619311711739325</v>
+        <v>1.374995826726628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.519582840594122</v>
+        <v>1.456321541266673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.830419604007264</v>
+        <v>1.808131274019491</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02914910817422917</v>
+        <v>0.0303130854727591</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.292116205666983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.3599043247727834</v>
+        <v>-0.3599043247727793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6179274297198797</v>
@@ -749,7 +749,7 @@
         <v>-0.2903631454635095</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0514947797267042</v>
+        <v>-0.05149477972670363</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.187269437371957</v>
+        <v>-1.087910738021743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.9969195142464</v>
+        <v>-2.699843295473271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.501099787166286</v>
+        <v>-3.845176594547067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.833660291686643</v>
+        <v>-3.731253084368193</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3649658877864661</v>
+        <v>-0.3107030642455252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4367325285465553</v>
+        <v>-0.4064331424193629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7485579146236454</v>
+        <v>-0.6566385019715268</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4230650689981868</v>
+        <v>-0.4040834668952165</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.593984480325107</v>
+        <v>4.663066167808182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.007735037803864</v>
+        <v>4.334381962406418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.259210561156438</v>
+        <v>1.863747514617595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.658134160116304</v>
+        <v>2.745278287626853</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.095531429957351</v>
+        <v>3.113055894728697</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.018018985778302</v>
+        <v>1.15856476608826</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4964860626070944</v>
+        <v>0.7333505291565821</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5221188975362243</v>
+        <v>0.5689987476590058</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.744194601019554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1598225853867111</v>
+        <v>-0.1598225853867097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3778087634882058</v>
@@ -849,7 +849,7 @@
         <v>0.271241643760767</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01316384060235575</v>
+        <v>-0.01316384060235564</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.992069068686107</v>
+        <v>-1.702205196434102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.258936091888516</v>
+        <v>-3.440668333537575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.583924171085684</v>
+        <v>-2.582752882957547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.021778166774133</v>
+        <v>-4.813773001394579</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3342025772104212</v>
+        <v>-0.2883787984937736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3535950646946379</v>
+        <v>-0.3689826547545678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.387293665241219</v>
+        <v>-0.3427851664777873</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3670106500735905</v>
+        <v>-0.3566559253913184</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.691670479004349</v>
+        <v>7.366181357979126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.525679032046138</v>
+        <v>5.12089165326774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.76847504242007</v>
+        <v>7.474277182329867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.976632734804692</v>
+        <v>5.627160512601793</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.548570133143828</v>
+        <v>1.505369338709541</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8285198974252034</v>
+        <v>0.7159282448550794</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.534897678073042</v>
+        <v>1.48954237672268</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5794786495333255</v>
+        <v>0.5557507820822843</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5841817853904696</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.048909440146313</v>
+        <v>-3.048909440146315</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05978284297335999</v>
@@ -949,7 +949,7 @@
         <v>0.09145859487043249</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2489493449600632</v>
+        <v>-0.2489493449600633</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.044664771767739</v>
+        <v>-1.997462304294101</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.036966155231938</v>
+        <v>-2.075538520969531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.586969385232467</v>
+        <v>-1.78593854428044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.516783542718528</v>
+        <v>-5.839533877803562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2947221047815489</v>
+        <v>-0.2862929716786465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2041594924836939</v>
+        <v>-0.2083748229426627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.221007050234945</v>
+        <v>-0.255137855097562</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4100697660870736</v>
+        <v>-0.4090323004238129</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.920531208058934</v>
+        <v>2.84179906880324</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.5075068274807</v>
+        <v>3.775372557458535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.056206027033324</v>
+        <v>3.091796048519011</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.775501702838945</v>
+        <v>-0.563672210842838</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5546332493566493</v>
+        <v>0.4977477545107306</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4532140580031681</v>
+        <v>0.4612940452736224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5544568964823136</v>
+        <v>0.5581394696229092</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06907729473672673</v>
+        <v>-0.04352476598156035</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.4314993187390012</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.002351615299768852</v>
+        <v>-0.002351615299768853</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.566977215785532</v>
+        <v>-2.23439838316782</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.881263820956435</v>
+        <v>0.5236892077489529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3459010737930829</v>
+        <v>-0.3734104300671927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.953701640112812</v>
+        <v>-4.140084134088471</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3063001499015253</v>
+        <v>-0.2670713967247643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08968185267482021</v>
+        <v>0.0563093223728624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07838756816508732</v>
+        <v>-0.06862876364578575</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2165651379724983</v>
+        <v>-0.224179026657623</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.522283374248161</v>
+        <v>4.542895055941553</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.549635162619678</v>
+        <v>7.39994175499969</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.122069522014903</v>
+        <v>5.241337351666345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.573310133525266</v>
+        <v>3.491979144361573</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.058395756150725</v>
+        <v>0.9811719853310379</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.465309349264821</v>
+        <v>1.391269601965563</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.186257517018945</v>
+        <v>1.189575692726569</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2905846249192683</v>
+        <v>0.2682523117160169</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.5923392403055106</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.988335108581656</v>
+        <v>1.988335108581657</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.937866436496952</v>
+        <v>1.846091019237869</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6215823992420235</v>
+        <v>0.6260800558128304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.4772762233297149</v>
+        <v>-0.1822723546309272</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.307404890982298</v>
+        <v>5.122220698419704</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4382055678213521</v>
+        <v>0.3243620613614751</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04558246661915177</v>
+        <v>0.05106475680308147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07779704066469455</v>
+        <v>-0.03404176094608457</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3926202507837921</v>
+        <v>0.3967957171183434</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.375426806671753</v>
+        <v>6.464750190281582</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.272306434173012</v>
+        <v>7.376935589243276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.650026971473342</v>
+        <v>6.002033102082777</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.20342059963527</v>
+        <v>13.54721011186201</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.354207495401203</v>
+        <v>8.100406687368281</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.11319926457509</v>
+        <v>2.668756264195709</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.946605885361821</v>
+        <v>2.244578506547319</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.259413217744643</v>
+        <v>5.459138613541404</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.326715565234481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4091505205626567</v>
+        <v>0.409150520562658</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2515735597723514</v>
@@ -1249,7 +1249,7 @@
         <v>0.2383039093527647</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.03759645362622065</v>
+        <v>0.03759645362622079</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08007166854422616</v>
+        <v>0.05533034781817189</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3544355758162194</v>
+        <v>0.4421844162255557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1272878724053202</v>
+        <v>0.05547951568670646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9189810433265984</v>
+        <v>-1.163952354531987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01404473891294733</v>
+        <v>0.005572235864277045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04380437339754911</v>
+        <v>0.06065500234245534</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.004775747035383356</v>
+        <v>0.007576872800390577</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.07842247859533949</v>
+        <v>-0.09846588874671239</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.300189522260718</v>
+        <v>2.443084012815353</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.069328705368483</v>
+        <v>3.093106119430125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.490509947684222</v>
+        <v>2.463973256320557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.917156723802347</v>
+        <v>1.770060786703147</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5084054354569387</v>
+        <v>0.5561427466545451</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.461629261841981</v>
+        <v>0.4657063381553749</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4944768265685974</v>
+        <v>0.4895075957629871</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1872697631565951</v>
+        <v>0.1785144321889248</v>
       </c>
     </row>
     <row r="25">
